--- a/medicine/Enfance/Marie-Antoinette_de_Miollis/Marie-Antoinette_de_Miollis.xlsx
+++ b/medicine/Enfance/Marie-Antoinette_de_Miollis/Marie-Antoinette_de_Miollis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Antoinette de Miollis (1894-1971) est un écrivain français de romans pour la jeunesse et de romans sentimentaux.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(liste exhaustive)
 1938 : Le Bon Oncle — illustrations de Henry Fournier, coll. : Collection du petit monde, Hachette
@@ -559,7 +575,7 @@
 1950 : Une famille à l'envers — ill. M. de La Pintière, coll. : Bibliothèque de Tante Marinette, Magnard
 1950 : Le Petit Rossignol — ill. H. Le Monnier ; publication en feuilleton dans  Lisette, du 2 avril (no 14) au 18 juin (no 25)
 1950 : L'Éléphant (paroles et musique), chanson publiée dans Lisette (no 38) le 17 septembre
-1951 : Rosine et le printemps — ill. P. Lagosse, coll. : Bibliothèque de Tante Marinette, Magnard[2]
+1951 : Rosine et le printemps — ill. P. Lagosse, coll. : Bibliothèque de Tante Marinette, Magnard
 1951 : Histoire de trois petits artistes (Théâtre bleu) — coll. : Bibliothèque de Tante Marinette, Magnard
 1951 : Maison à vendre — ill. P. Lagosse, coll. : Bibliothèque de Tante Marinette, Magnard
 1952 : Cœurs en déroute, 1952 ? — (coll. : Delphine no 92, Paris : Société européenne d'éditions familiales
@@ -570,7 +586,7 @@
 1952 : Tout nous sépare et je l'aime, 1952 ? — coll. : Mirabelle no 148, Lyon : Éditions des Remparts
 1952 : Naugsur un amour, 1952 ? — coll. : Mirabelle no 160, Lyon : Éditions des Remparts
 Un cœur comme les autres, 1952 ? — coll. : Mirabelle no 178, Lyon : Éditions des Remparts
-1952 : Le Théâtre des moins de 15 ans : 16 saynètes faciles pour enfants de 8 à 14 ans — Paris : Librairie Théâtrale Billaudot. Rééd. : Éditions de l'Amicale, Librairie théâtrale, 1966, 1978[3]
+1952 : Le Théâtre des moins de 15 ans : 16 saynètes faciles pour enfants de 8 à 14 ans — Paris : Librairie Théâtrale Billaudot. Rééd. : Éditions de l'Amicale, Librairie théâtrale, 1966, 1978
 1953 : L'Enfant du Pays vert —  ill. Philippe Ledoux, coll. : Bibliothèque rose illustrée, Hachette
 1954 : La Maison au bord du lac — ill. Philippe Ledoux, coll. : Bibliothèque rose, Hachette
 1955 : La Rescapée des Kerguelen — ill. Albert Chazelle, coll. : Bibliothèque verte, Hachette
@@ -585,7 +601,7 @@
 1960 : Haruko-San, 1960 ? — coll. : Rêves bleus no 110, Lyon : Éditions des Remparts
 1960 : Un compagnon de La Fayette (en collaboration avec le général de Miollis — coll. : Figures méconnues, Paris : Éditions Beauchesne
 1960 : Fille de pilote — ill. Vanni Tealdi, collection Spirale no 32, Éditions G. P.
-1962 : Chantalou, Bibliothèque Pervenche, Paris : J. Tallandier : prix Max du Veuzit[4]
+1962 : Chantalou, Bibliothèque Pervenche, Paris : J. Tallandier : prix Max du Veuzit
 1968 : L'Oiseau de l'amour — Paris : Le Cercle romanesque
 1968 : L'Oiseau de l'amour — Paris : J. Tallandier
 1969 : Le Serment oublié — coll. : Mirabelle no 219, Lyon : Éditions des Remparts
